--- a/notebooks/output/acs1_age_1021.xlsx
+++ b/notebooks/output/acs1_age_1021.xlsx
@@ -19,6 +19,51 @@
     <t>GEO_ID</t>
   </si>
   <si>
+    <t>p_2539_10E</t>
+  </si>
+  <si>
+    <t>p_2539_10M</t>
+  </si>
+  <si>
+    <t>p_2539_10C</t>
+  </si>
+  <si>
+    <t>p_4054_10E</t>
+  </si>
+  <si>
+    <t>p_4054_10M</t>
+  </si>
+  <si>
+    <t>p_4054_10C</t>
+  </si>
+  <si>
+    <t>p_1024_10E</t>
+  </si>
+  <si>
+    <t>p_1024_10M</t>
+  </si>
+  <si>
+    <t>p_1024_10C</t>
+  </si>
+  <si>
+    <t>p_o55_10E</t>
+  </si>
+  <si>
+    <t>p_o55_10M</t>
+  </si>
+  <si>
+    <t>p_o55_10C</t>
+  </si>
+  <si>
+    <t>tot_10E</t>
+  </si>
+  <si>
+    <t>tot_10M</t>
+  </si>
+  <si>
+    <t>tot_10C</t>
+  </si>
+  <si>
     <t>p_u10_10E</t>
   </si>
   <si>
@@ -28,49 +73,40 @@
     <t>p_u10_10C</t>
   </si>
   <si>
-    <t>p_4054_10E</t>
-  </si>
-  <si>
-    <t>p_4054_10M</t>
-  </si>
-  <si>
-    <t>p_4054_10C</t>
-  </si>
-  <si>
-    <t>p_o55_10E</t>
-  </si>
-  <si>
-    <t>p_o55_10M</t>
-  </si>
-  <si>
-    <t>p_o55_10C</t>
-  </si>
-  <si>
-    <t>p_1024_10E</t>
-  </si>
-  <si>
-    <t>p_1024_10M</t>
-  </si>
-  <si>
-    <t>p_1024_10C</t>
-  </si>
-  <si>
-    <t>tot_10E</t>
-  </si>
-  <si>
-    <t>tot_10M</t>
-  </si>
-  <si>
-    <t>tot_10C</t>
-  </si>
-  <si>
-    <t>p_2539_10E</t>
-  </si>
-  <si>
-    <t>p_2539_10M</t>
-  </si>
-  <si>
-    <t>p_2539_10C</t>
+    <t>tot_21E</t>
+  </si>
+  <si>
+    <t>tot_21M</t>
+  </si>
+  <si>
+    <t>tot_21C</t>
+  </si>
+  <si>
+    <t>p_u10_21E</t>
+  </si>
+  <si>
+    <t>p_u10_21M</t>
+  </si>
+  <si>
+    <t>p_u10_21C</t>
+  </si>
+  <si>
+    <t>p_1024_21E</t>
+  </si>
+  <si>
+    <t>p_1024_21M</t>
+  </si>
+  <si>
+    <t>p_1024_21C</t>
+  </si>
+  <si>
+    <t>p_o55_21E</t>
+  </si>
+  <si>
+    <t>p_o55_21M</t>
+  </si>
+  <si>
+    <t>p_o55_21C</t>
   </si>
   <si>
     <t>p_2539_21E</t>
@@ -82,24 +118,6 @@
     <t>p_2539_21C</t>
   </si>
   <si>
-    <t>p_1024_21E</t>
-  </si>
-  <si>
-    <t>p_1024_21M</t>
-  </si>
-  <si>
-    <t>p_1024_21C</t>
-  </si>
-  <si>
-    <t>p_u10_21E</t>
-  </si>
-  <si>
-    <t>p_u10_21M</t>
-  </si>
-  <si>
-    <t>p_u10_21C</t>
-  </si>
-  <si>
     <t>p_4054_21E</t>
   </si>
   <si>
@@ -109,24 +127,6 @@
     <t>p_4054_21C</t>
   </si>
   <si>
-    <t>p_o55_21E</t>
-  </si>
-  <si>
-    <t>p_o55_21M</t>
-  </si>
-  <si>
-    <t>p_o55_21C</t>
-  </si>
-  <si>
-    <t>tot_21E</t>
-  </si>
-  <si>
-    <t>tot_21M</t>
-  </si>
-  <si>
-    <t>tot_21C</t>
-  </si>
-  <si>
     <t>tot_1021E</t>
   </si>
   <si>
@@ -217,34 +217,34 @@
     <t>p_o55_21P</t>
   </si>
   <si>
-    <t>0455000</t>
-  </si>
-  <si>
-    <t>04013</t>
-  </si>
-  <si>
-    <t>0100000US</t>
-  </si>
-  <si>
-    <t>0400000US04</t>
-  </si>
-  <si>
-    <t>0473000</t>
-  </si>
-  <si>
-    <t>0465000</t>
-  </si>
-  <si>
-    <t>0427820</t>
-  </si>
-  <si>
-    <t>4865000</t>
-  </si>
-  <si>
-    <t>4819000</t>
-  </si>
-  <si>
-    <t>1235000</t>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Maricopa</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Tempe</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>Glendale</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
   </si>
 </sst>
 </file>
@@ -816,13 +816,13 @@
         <v>67</v>
       </c>
       <c r="B2">
-        <v>220765</v>
+        <v>338099</v>
       </c>
       <c r="C2">
-        <v>6608.957028155048</v>
+        <v>8533.645000818819</v>
       </c>
       <c r="D2">
-        <v>1.819855075138364</v>
+        <v>1.534351222664188</v>
       </c>
       <c r="E2">
         <v>292753</v>
@@ -834,22 +834,22 @@
         <v>1.644904956973529</v>
       </c>
       <c r="H2">
+        <v>330835</v>
+      </c>
+      <c r="I2">
+        <v>10089.10124837688</v>
+      </c>
+      <c r="J2">
+        <v>1.853852297445381</v>
+      </c>
+      <c r="K2">
         <v>267029</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>7834.840968392403</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>1.783634458197949</v>
-      </c>
-      <c r="K2">
-        <v>330835</v>
-      </c>
-      <c r="L2">
-        <v>10089.10124837688</v>
-      </c>
-      <c r="M2">
-        <v>1.853852297445381</v>
       </c>
       <c r="N2">
         <v>1449481</v>
@@ -861,67 +861,67 @@
         <v>0.005955385993320922</v>
       </c>
       <c r="Q2">
-        <v>338099</v>
+        <v>220765</v>
       </c>
       <c r="R2">
-        <v>8533.645000818819</v>
+        <v>6608.957028155048</v>
       </c>
       <c r="S2">
-        <v>1.534351222664188</v>
+        <v>1.819855075138364</v>
       </c>
       <c r="T2">
+        <v>1624539</v>
+      </c>
+      <c r="U2">
+        <v>144</v>
+      </c>
+      <c r="V2">
+        <v>0.00538848214299396</v>
+      </c>
+      <c r="W2">
+        <v>203928</v>
+      </c>
+      <c r="X2">
+        <v>7105.454313413042</v>
+      </c>
+      <c r="Y2">
+        <v>2.118112821455025</v>
+      </c>
+      <c r="Z2">
+        <v>355529</v>
+      </c>
+      <c r="AA2">
+        <v>10451.35804572784</v>
+      </c>
+      <c r="AB2">
+        <v>1.787029791195405</v>
+      </c>
+      <c r="AC2">
+        <v>369710</v>
+      </c>
+      <c r="AD2">
+        <v>9845.410352037135</v>
+      </c>
+      <c r="AE2">
+        <v>1.618850419446826</v>
+      </c>
+      <c r="AF2">
         <v>380521</v>
       </c>
-      <c r="U2">
+      <c r="AG2">
         <v>9109.471444600944</v>
       </c>
-      <c r="V2">
+      <c r="AH2">
         <v>1.455286990914999</v>
       </c>
-      <c r="W2">
-        <v>355529</v>
-      </c>
-      <c r="X2">
-        <v>10451.35804572784</v>
-      </c>
-      <c r="Y2">
-        <v>1.787029791195405</v>
-      </c>
-      <c r="Z2">
-        <v>203928</v>
-      </c>
-      <c r="AA2">
-        <v>7105.454313413042</v>
-      </c>
-      <c r="AB2">
-        <v>2.118112821455025</v>
-      </c>
-      <c r="AC2">
+      <c r="AI2">
         <v>314851</v>
       </c>
-      <c r="AD2">
+      <c r="AJ2">
         <v>8034.993341627608</v>
       </c>
-      <c r="AE2">
+      <c r="AK2">
         <v>1.551366974410235</v>
-      </c>
-      <c r="AF2">
-        <v>369710</v>
-      </c>
-      <c r="AG2">
-        <v>9845.410352037135</v>
-      </c>
-      <c r="AH2">
-        <v>1.618850419446826</v>
-      </c>
-      <c r="AI2">
-        <v>1624539</v>
-      </c>
-      <c r="AJ2">
-        <v>144</v>
-      </c>
-      <c r="AK2">
-        <v>0.00538848214299396</v>
       </c>
       <c r="AL2">
         <v>175058</v>
@@ -1019,13 +1019,13 @@
         <v>68</v>
       </c>
       <c r="B3">
-        <v>562409</v>
+        <v>809639</v>
       </c>
       <c r="C3">
-        <v>7872.068216167845</v>
+        <v>7021.664688661799</v>
       </c>
       <c r="D3">
-        <v>0.8508846414516034</v>
+        <v>0.52720893786475</v>
       </c>
       <c r="E3">
         <v>762589</v>
@@ -1037,22 +1037,22 @@
         <v>0.5620517300752793</v>
       </c>
       <c r="H3">
+        <v>826386</v>
+      </c>
+      <c r="I3">
+        <v>11192.65433219484</v>
+      </c>
+      <c r="J3">
+        <v>0.8233495227102813</v>
+      </c>
+      <c r="K3">
         <v>866348</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>11920.18405898164</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>0.8364205259158189</v>
-      </c>
-      <c r="K3">
-        <v>826386</v>
-      </c>
-      <c r="L3">
-        <v>11192.65433219484</v>
-      </c>
-      <c r="M3">
-        <v>0.8233495227102813</v>
       </c>
       <c r="N3">
         <v>3827371</v>
@@ -1064,67 +1064,67 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>809639</v>
+        <v>562409</v>
       </c>
       <c r="R3">
-        <v>7021.664688661799</v>
+        <v>7872.068216167845</v>
       </c>
       <c r="S3">
-        <v>0.52720893786475</v>
+        <v>0.8508846414516034</v>
       </c>
       <c r="T3">
+        <v>4496588</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>536428</v>
+      </c>
+      <c r="X3">
+        <v>7383.058783458249</v>
+      </c>
+      <c r="Y3">
+        <v>0.836679224664188</v>
+      </c>
+      <c r="Z3">
+        <v>914602</v>
+      </c>
+      <c r="AA3">
+        <v>11173.39541052763</v>
+      </c>
+      <c r="AB3">
+        <v>0.7426550166716352</v>
+      </c>
+      <c r="AC3">
+        <v>1237511</v>
+      </c>
+      <c r="AD3">
+        <v>14702.67360040343</v>
+      </c>
+      <c r="AE3">
+        <v>0.7222396812444498</v>
+      </c>
+      <c r="AF3">
         <v>960808</v>
       </c>
-      <c r="U3">
+      <c r="AG3">
         <v>6689.989985044821</v>
       </c>
-      <c r="V3">
+      <c r="AH3">
         <v>0.4232753279316164</v>
       </c>
-      <c r="W3">
-        <v>914602</v>
-      </c>
-      <c r="X3">
-        <v>11173.39541052763</v>
-      </c>
-      <c r="Y3">
-        <v>0.7426550166716352</v>
-      </c>
-      <c r="Z3">
-        <v>536428</v>
-      </c>
-      <c r="AA3">
-        <v>7383.058783458249</v>
-      </c>
-      <c r="AB3">
-        <v>0.836679224664188</v>
-      </c>
-      <c r="AC3">
+      <c r="AI3">
         <v>847239</v>
       </c>
-      <c r="AD3">
+      <c r="AJ3">
         <v>6677.8487554002</v>
       </c>
-      <c r="AE3">
+      <c r="AK3">
         <v>0.4791425472716848</v>
-      </c>
-      <c r="AF3">
-        <v>1237511</v>
-      </c>
-      <c r="AG3">
-        <v>14702.67360040343</v>
-      </c>
-      <c r="AH3">
-        <v>0.7222396812444498</v>
-      </c>
-      <c r="AI3">
-        <v>4496588</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
       </c>
       <c r="AL3">
         <v>669217</v>
@@ -1222,13 +1222,13 @@
         <v>69</v>
       </c>
       <c r="B4">
-        <v>40525402</v>
+        <v>61178747</v>
       </c>
       <c r="C4">
-        <v>60387.03706094545</v>
+        <v>68071.82025625581</v>
       </c>
       <c r="D4">
-        <v>0.0905837899445176</v>
+        <v>0.06763957710425775</v>
       </c>
       <c r="E4">
         <v>65914697</v>
@@ -1240,22 +1240,22 @@
         <v>0.05715928009534624</v>
       </c>
       <c r="H4">
+        <v>64535354</v>
+      </c>
+      <c r="I4">
+        <v>100074.9942293278</v>
+      </c>
+      <c r="J4">
+        <v>0.09426749677919297</v>
+      </c>
+      <c r="K4">
         <v>77195489</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>105966.8350853228</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>0.08344727102803624</v>
-      </c>
-      <c r="K4">
-        <v>64535354</v>
-      </c>
-      <c r="L4">
-        <v>100074.9942293278</v>
-      </c>
-      <c r="M4">
-        <v>0.09426749677919297</v>
       </c>
       <c r="N4">
         <v>309349689</v>
@@ -1267,67 +1267,67 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>61178747</v>
+        <v>40525402</v>
       </c>
       <c r="R4">
-        <v>68071.82025625581</v>
+        <v>60387.03706094545</v>
       </c>
       <c r="S4">
-        <v>0.06763957710425775</v>
+        <v>0.0905837899445176</v>
       </c>
       <c r="T4">
+        <v>331893745</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>38672058</v>
+      </c>
+      <c r="X4">
+        <v>73096.692031856</v>
+      </c>
+      <c r="Y4">
+        <v>0.1149038384425286</v>
+      </c>
+      <c r="Z4">
+        <v>65028223</v>
+      </c>
+      <c r="AA4">
+        <v>114963.3993234369</v>
+      </c>
+      <c r="AB4">
+        <v>0.1074711282488213</v>
+      </c>
+      <c r="AC4">
+        <v>98707048</v>
+      </c>
+      <c r="AD4">
+        <v>130816.4853907947</v>
+      </c>
+      <c r="AE4">
+        <v>0.08056537090007095</v>
+      </c>
+      <c r="AF4">
         <v>67450536</v>
       </c>
-      <c r="U4">
+      <c r="AG4">
         <v>81909.01968037464</v>
       </c>
-      <c r="V4">
+      <c r="AH4">
         <v>0.07382108443278616</v>
       </c>
-      <c r="W4">
-        <v>65028223</v>
-      </c>
-      <c r="X4">
-        <v>114963.3993234369</v>
-      </c>
-      <c r="Y4">
-        <v>0.1074711282488213</v>
-      </c>
-      <c r="Z4">
-        <v>38672058</v>
-      </c>
-      <c r="AA4">
-        <v>73096.692031856</v>
-      </c>
-      <c r="AB4">
-        <v>0.1149038384425286</v>
-      </c>
-      <c r="AC4">
+      <c r="AI4">
         <v>62035880</v>
       </c>
-      <c r="AD4">
+      <c r="AJ4">
         <v>75944.26472091227</v>
       </c>
-      <c r="AE4">
+      <c r="AK4">
         <v>0.07441939450864693</v>
-      </c>
-      <c r="AF4">
-        <v>98707048</v>
-      </c>
-      <c r="AG4">
-        <v>130816.4853907947</v>
-      </c>
-      <c r="AH4">
-        <v>0.08056537090007095</v>
-      </c>
-      <c r="AI4">
-        <v>331893745</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
       </c>
       <c r="AL4">
         <v>22544056</v>
@@ -1425,13 +1425,13 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <v>904399</v>
+        <v>1277639</v>
       </c>
       <c r="C5">
-        <v>9523.53763052365</v>
+        <v>9655.846311950081</v>
       </c>
       <c r="D5">
-        <v>0.6401361100383709</v>
+        <v>0.4594267541303683</v>
       </c>
       <c r="E5">
         <v>1249064</v>
@@ -1443,22 +1443,22 @@
         <v>0.4562971428649076</v>
       </c>
       <c r="H5">
+        <v>1362580</v>
+      </c>
+      <c r="I5">
+        <v>14513.27485442207</v>
+      </c>
+      <c r="J5">
+        <v>0.647496623021831</v>
+      </c>
+      <c r="K5">
         <v>1620055</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>17087.89015648216</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>0.6411989204757725</v>
-      </c>
-      <c r="K5">
-        <v>1362580</v>
-      </c>
-      <c r="L5">
-        <v>14513.27485442207</v>
-      </c>
-      <c r="M5">
-        <v>0.647496623021831</v>
       </c>
       <c r="N5">
         <v>6413737</v>
@@ -1470,67 +1470,67 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1277639</v>
+        <v>904399</v>
       </c>
       <c r="R5">
-        <v>9655.846311950081</v>
+        <v>9523.53763052365</v>
       </c>
       <c r="S5">
-        <v>0.4594267541303683</v>
+        <v>0.6401361100383709</v>
       </c>
       <c r="T5">
+        <v>7276316</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>848564</v>
+      </c>
+      <c r="X5">
+        <v>9387.654552655844</v>
+      </c>
+      <c r="Y5">
+        <v>0.6725221530813776</v>
+      </c>
+      <c r="Z5">
+        <v>1447455</v>
+      </c>
+      <c r="AA5">
+        <v>14831.48549539121</v>
+      </c>
+      <c r="AB5">
+        <v>0.6228933269152438</v>
+      </c>
+      <c r="AC5">
+        <v>2213996</v>
+      </c>
+      <c r="AD5">
+        <v>20056.30038167558</v>
+      </c>
+      <c r="AE5">
+        <v>0.5506911424989019</v>
+      </c>
+      <c r="AF5">
         <v>1470381</v>
       </c>
-      <c r="U5">
+      <c r="AG5">
         <v>10823.51024390886</v>
       </c>
-      <c r="V5">
+      <c r="AH5">
         <v>0.4474786797203501</v>
       </c>
-      <c r="W5">
-        <v>1447455</v>
-      </c>
-      <c r="X5">
-        <v>14831.48549539121</v>
-      </c>
-      <c r="Y5">
-        <v>0.6228933269152438</v>
-      </c>
-      <c r="Z5">
-        <v>848564</v>
-      </c>
-      <c r="AA5">
-        <v>9387.654552655844</v>
-      </c>
-      <c r="AB5">
-        <v>0.6725221530813776</v>
-      </c>
-      <c r="AC5">
+      <c r="AI5">
         <v>1295920</v>
       </c>
-      <c r="AD5">
+      <c r="AJ5">
         <v>10729.69090887524</v>
       </c>
-      <c r="AE5">
+      <c r="AK5">
         <v>0.5033187585069532</v>
-      </c>
-      <c r="AF5">
-        <v>2213996</v>
-      </c>
-      <c r="AG5">
-        <v>20056.30038167558</v>
-      </c>
-      <c r="AH5">
-        <v>0.5506911424989019</v>
-      </c>
-      <c r="AI5">
-        <v>7276316</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
       </c>
       <c r="AL5">
         <v>862579</v>
@@ -1628,13 +1628,13 @@
         <v>71</v>
       </c>
       <c r="B6">
-        <v>19534</v>
+        <v>40816</v>
       </c>
       <c r="C6">
-        <v>2790.119531489646</v>
+        <v>3635.258312692511</v>
       </c>
       <c r="D6">
-        <v>8.68291847925866</v>
+        <v>5.41425782232802</v>
       </c>
       <c r="E6">
         <v>21984</v>
@@ -1646,22 +1646,22 @@
         <v>6.746475358711196</v>
       </c>
       <c r="H6">
+        <v>49991</v>
+      </c>
+      <c r="I6">
+        <v>5026.761084435981</v>
+      </c>
+      <c r="J6">
+        <v>6.112663907997034</v>
+      </c>
+      <c r="K6">
         <v>29798</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>2534.89250265174</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>5.17138092059327</v>
-      </c>
-      <c r="K6">
-        <v>49991</v>
-      </c>
-      <c r="L6">
-        <v>5026.761084435981</v>
-      </c>
-      <c r="M6">
-        <v>6.112663907997034</v>
       </c>
       <c r="N6">
         <v>162123</v>
@@ -1673,67 +1673,67 @@
         <v>0.01687337583211756</v>
       </c>
       <c r="Q6">
-        <v>40816</v>
+        <v>19534</v>
       </c>
       <c r="R6">
-        <v>3635.258312692511</v>
+        <v>2790.119531489646</v>
       </c>
       <c r="S6">
-        <v>5.41425782232802</v>
+        <v>8.68291847925866</v>
       </c>
       <c r="T6">
+        <v>184109</v>
+      </c>
+      <c r="U6">
+        <v>40</v>
+      </c>
+      <c r="V6">
+        <v>0.01320745287981163</v>
+      </c>
+      <c r="W6">
+        <v>16099</v>
+      </c>
+      <c r="X6">
+        <v>2514.801582630328</v>
+      </c>
+      <c r="Y6">
+        <v>9.495961000542909</v>
+      </c>
+      <c r="Z6">
+        <v>51828</v>
+      </c>
+      <c r="AA6">
+        <v>4766.835323356577</v>
+      </c>
+      <c r="AB6">
+        <v>5.591132656177185</v>
+      </c>
+      <c r="AC6">
+        <v>32714</v>
+      </c>
+      <c r="AD6">
+        <v>3058.468734514054</v>
+      </c>
+      <c r="AE6">
+        <v>5.68335119625509</v>
+      </c>
+      <c r="AF6">
         <v>56920</v>
       </c>
-      <c r="U6">
+      <c r="AG6">
         <v>4435.719445591661</v>
       </c>
-      <c r="V6">
+      <c r="AH6">
         <v>4.737326045611567</v>
       </c>
-      <c r="W6">
-        <v>51828</v>
-      </c>
-      <c r="X6">
-        <v>4766.835323356577</v>
-      </c>
-      <c r="Y6">
-        <v>5.591132656177185</v>
-      </c>
-      <c r="Z6">
-        <v>16099</v>
-      </c>
-      <c r="AA6">
-        <v>2514.801582630328</v>
-      </c>
-      <c r="AB6">
-        <v>9.495961000542909</v>
-      </c>
-      <c r="AC6">
+      <c r="AI6">
         <v>26548</v>
       </c>
-      <c r="AD6">
+      <c r="AJ6">
         <v>2714.598497015719</v>
       </c>
-      <c r="AE6">
+      <c r="AK6">
         <v>6.215955447827297</v>
-      </c>
-      <c r="AF6">
-        <v>32714</v>
-      </c>
-      <c r="AG6">
-        <v>3058.468734514054</v>
-      </c>
-      <c r="AH6">
-        <v>5.68335119625509</v>
-      </c>
-      <c r="AI6">
-        <v>184109</v>
-      </c>
-      <c r="AJ6">
-        <v>40</v>
-      </c>
-      <c r="AK6">
-        <v>0.01320745287981163</v>
       </c>
       <c r="AL6">
         <v>21986</v>
@@ -1831,13 +1831,13 @@
         <v>72</v>
       </c>
       <c r="B7">
-        <v>18354</v>
+        <v>32705</v>
       </c>
       <c r="C7">
-        <v>2557.891905456523</v>
+        <v>3559.065748198535</v>
       </c>
       <c r="D7">
-        <v>8.471992408192818</v>
+        <v>6.615397659000181</v>
       </c>
       <c r="E7">
         <v>53451</v>
@@ -1849,22 +1849,22 @@
         <v>4.28476514347825</v>
       </c>
       <c r="H7">
+        <v>36006</v>
+      </c>
+      <c r="I7">
+        <v>3882.528557525366</v>
+      </c>
+      <c r="J7">
+        <v>6.555017860963338</v>
+      </c>
+      <c r="K7">
         <v>77461</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>4682.154632217949</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>3.67448730232121</v>
-      </c>
-      <c r="K7">
-        <v>36006</v>
-      </c>
-      <c r="L7">
-        <v>3882.528557525366</v>
-      </c>
-      <c r="M7">
-        <v>6.555017860963338</v>
       </c>
       <c r="N7">
         <v>217977</v>
@@ -1876,67 +1876,67 @@
         <v>0.007808748902748766</v>
       </c>
       <c r="Q7">
-        <v>32705</v>
+        <v>18354</v>
       </c>
       <c r="R7">
-        <v>3559.065748198535</v>
+        <v>2557.891905456523</v>
       </c>
       <c r="S7">
-        <v>6.615397659000181</v>
+        <v>8.471992408192818</v>
       </c>
       <c r="T7">
+        <v>242754</v>
+      </c>
+      <c r="U7">
+        <v>38</v>
+      </c>
+      <c r="V7">
+        <v>0.009515931334341671</v>
+      </c>
+      <c r="W7">
+        <v>16043</v>
+      </c>
+      <c r="X7">
+        <v>2220.573349385244</v>
+      </c>
+      <c r="Y7">
+        <v>8.414215630543234</v>
+      </c>
+      <c r="Z7">
+        <v>31020</v>
+      </c>
+      <c r="AA7">
+        <v>3382.600035475669</v>
+      </c>
+      <c r="AB7">
+        <v>6.628922678526197</v>
+      </c>
+      <c r="AC7">
+        <v>104209</v>
+      </c>
+      <c r="AD7">
+        <v>5042.441174669269</v>
+      </c>
+      <c r="AE7">
+        <v>2.941505804674718</v>
+      </c>
+      <c r="AF7">
         <v>47583</v>
       </c>
-      <c r="U7">
+      <c r="AG7">
         <v>3939.214769468656</v>
       </c>
-      <c r="V7">
+      <c r="AH7">
         <v>5.032594486113634</v>
       </c>
-      <c r="W7">
-        <v>31020</v>
-      </c>
-      <c r="X7">
-        <v>3382.600035475669</v>
-      </c>
-      <c r="Y7">
-        <v>6.628922678526197</v>
-      </c>
-      <c r="Z7">
-        <v>16043</v>
-      </c>
-      <c r="AA7">
-        <v>2220.573349385244</v>
-      </c>
-      <c r="AB7">
-        <v>8.414215630543234</v>
-      </c>
-      <c r="AC7">
+      <c r="AI7">
         <v>43899</v>
       </c>
-      <c r="AD7">
+      <c r="AJ7">
         <v>3648.684009338162</v>
       </c>
-      <c r="AE7">
+      <c r="AK7">
         <v>5.052609377159219</v>
-      </c>
-      <c r="AF7">
-        <v>104209</v>
-      </c>
-      <c r="AG7">
-        <v>5042.441174669269</v>
-      </c>
-      <c r="AH7">
-        <v>2.941505804674718</v>
-      </c>
-      <c r="AI7">
-        <v>242754</v>
-      </c>
-      <c r="AJ7">
-        <v>38</v>
-      </c>
-      <c r="AK7">
-        <v>0.009515931334341671</v>
       </c>
       <c r="AL7">
         <v>24777</v>
@@ -2034,13 +2034,13 @@
         <v>73</v>
       </c>
       <c r="B8">
-        <v>35555</v>
+        <v>47581</v>
       </c>
       <c r="C8">
-        <v>3174.67746393236</v>
+        <v>3789.950527381591</v>
       </c>
       <c r="D8">
-        <v>5.427914821691741</v>
+        <v>4.842103556547968</v>
       </c>
       <c r="E8">
         <v>44534</v>
@@ -2052,22 +2052,22 @@
         <v>5.009112235405669</v>
       </c>
       <c r="H8">
+        <v>55190</v>
+      </c>
+      <c r="I8">
+        <v>4194.525360514584</v>
+      </c>
+      <c r="J8">
+        <v>4.620154812542672</v>
+      </c>
+      <c r="K8">
         <v>44498</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>3439.067896974411</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>4.698230892074397</v>
-      </c>
-      <c r="K8">
-        <v>55190</v>
-      </c>
-      <c r="L8">
-        <v>4194.525360514584</v>
-      </c>
-      <c r="M8">
-        <v>4.620154812542672</v>
       </c>
       <c r="N8">
         <v>227358</v>
@@ -2079,67 +2079,67 @@
         <v>0.02834194968710354</v>
       </c>
       <c r="Q8">
-        <v>47581</v>
+        <v>35555</v>
       </c>
       <c r="R8">
-        <v>3789.950527381591</v>
+        <v>3174.67746393236</v>
       </c>
       <c r="S8">
-        <v>4.842103556547968</v>
+        <v>5.427914821691741</v>
       </c>
       <c r="T8">
+        <v>249627</v>
+      </c>
+      <c r="U8">
+        <v>56</v>
+      </c>
+      <c r="V8">
+        <v>0.0136373682299949</v>
+      </c>
+      <c r="W8">
+        <v>29239</v>
+      </c>
+      <c r="X8">
+        <v>3144.696010745713</v>
+      </c>
+      <c r="Y8">
+        <v>6.538080329163795</v>
+      </c>
+      <c r="Z8">
+        <v>56311</v>
+      </c>
+      <c r="AA8">
+        <v>4590.492239400912</v>
+      </c>
+      <c r="AB8">
+        <v>4.95564417238083</v>
+      </c>
+      <c r="AC8">
+        <v>64056</v>
+      </c>
+      <c r="AD8">
+        <v>4113.703076304851</v>
+      </c>
+      <c r="AE8">
+        <v>3.903976759986277</v>
+      </c>
+      <c r="AF8">
         <v>52984</v>
       </c>
-      <c r="U8">
+      <c r="AG8">
         <v>4199.829401297153</v>
       </c>
-      <c r="V8">
+      <c r="AH8">
         <v>4.818601430514038</v>
       </c>
-      <c r="W8">
-        <v>56311</v>
-      </c>
-      <c r="X8">
-        <v>4590.492239400912</v>
-      </c>
-      <c r="Y8">
-        <v>4.95564417238083</v>
-      </c>
-      <c r="Z8">
-        <v>29239</v>
-      </c>
-      <c r="AA8">
-        <v>3144.696010745713</v>
-      </c>
-      <c r="AB8">
-        <v>6.538080329163795</v>
-      </c>
-      <c r="AC8">
+      <c r="AI8">
         <v>47037</v>
       </c>
-      <c r="AD8">
+      <c r="AJ8">
         <v>3570.894705812536</v>
       </c>
-      <c r="AE8">
+      <c r="AK8">
         <v>4.614998108017968</v>
-      </c>
-      <c r="AF8">
-        <v>64056</v>
-      </c>
-      <c r="AG8">
-        <v>4113.703076304851</v>
-      </c>
-      <c r="AH8">
-        <v>3.903976759986277</v>
-      </c>
-      <c r="AI8">
-        <v>249627</v>
-      </c>
-      <c r="AJ8">
-        <v>56</v>
-      </c>
-      <c r="AK8">
-        <v>0.0136373682299949</v>
       </c>
       <c r="AL8">
         <v>22269</v>
@@ -2237,13 +2237,13 @@
         <v>74</v>
       </c>
       <c r="B9">
-        <v>198777</v>
+        <v>293401</v>
       </c>
       <c r="C9">
-        <v>5686.74019100574</v>
+        <v>4991.241729269381</v>
       </c>
       <c r="D9">
-        <v>1.739127222236236</v>
+        <v>1.034144226187236</v>
       </c>
       <c r="E9">
         <v>255360</v>
@@ -2255,22 +2255,22 @@
         <v>1.169605347212587</v>
       </c>
       <c r="H9">
+        <v>309115</v>
+      </c>
+      <c r="I9">
+        <v>7507.801209408784</v>
+      </c>
+      <c r="J9">
+        <v>1.476477328262174</v>
+      </c>
+      <c r="K9">
         <v>277706</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>6739.814760065739</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>1.475355890699948</v>
-      </c>
-      <c r="K9">
-        <v>309115</v>
-      </c>
-      <c r="L9">
-        <v>7507.801209408784</v>
-      </c>
-      <c r="M9">
-        <v>1.476477328262174</v>
       </c>
       <c r="N9">
         <v>1334359</v>
@@ -2282,67 +2282,67 @@
         <v>0.004419093013914851</v>
       </c>
       <c r="Q9">
-        <v>293401</v>
+        <v>198777</v>
       </c>
       <c r="R9">
-        <v>4991.241729269381</v>
+        <v>5686.74019100574</v>
       </c>
       <c r="S9">
-        <v>1.034144226187236</v>
+        <v>1.739127222236236</v>
       </c>
       <c r="T9">
+        <v>1451863</v>
+      </c>
+      <c r="U9">
+        <v>92</v>
+      </c>
+      <c r="V9">
+        <v>0.003852088776401941</v>
+      </c>
+      <c r="W9">
+        <v>197345</v>
+      </c>
+      <c r="X9">
+        <v>7146.612764100207</v>
+      </c>
+      <c r="Y9">
+        <v>2.20144693268187</v>
+      </c>
+      <c r="Z9">
+        <v>310549</v>
+      </c>
+      <c r="AA9">
+        <v>8857.882647676024</v>
+      </c>
+      <c r="AB9">
+        <v>1.733939279409102</v>
+      </c>
+      <c r="AC9">
+        <v>340951</v>
+      </c>
+      <c r="AD9">
+        <v>9053.955157830196</v>
+      </c>
+      <c r="AE9">
+        <v>1.614285955490221</v>
+      </c>
+      <c r="AF9">
         <v>344102</v>
       </c>
-      <c r="U9">
+      <c r="AG9">
         <v>7596.37341104293</v>
       </c>
-      <c r="V9">
+      <c r="AH9">
         <v>1.342002132195045</v>
       </c>
-      <c r="W9">
-        <v>310549</v>
-      </c>
-      <c r="X9">
-        <v>8857.882647676024</v>
-      </c>
-      <c r="Y9">
-        <v>1.733939279409102</v>
-      </c>
-      <c r="Z9">
-        <v>197345</v>
-      </c>
-      <c r="AA9">
-        <v>7146.612764100207</v>
-      </c>
-      <c r="AB9">
-        <v>2.20144693268187</v>
-      </c>
-      <c r="AC9">
+      <c r="AI9">
         <v>258916</v>
       </c>
-      <c r="AD9">
+      <c r="AJ9">
         <v>7041.765474651936</v>
       </c>
-      <c r="AE9">
+      <c r="AK9">
         <v>1.653319414493171</v>
-      </c>
-      <c r="AF9">
-        <v>340951</v>
-      </c>
-      <c r="AG9">
-        <v>9053.955157830196</v>
-      </c>
-      <c r="AH9">
-        <v>1.614285955490221</v>
-      </c>
-      <c r="AI9">
-        <v>1451863</v>
-      </c>
-      <c r="AJ9">
-        <v>92</v>
-      </c>
-      <c r="AK9">
-        <v>0.003852088776401941</v>
       </c>
       <c r="AL9">
         <v>117504</v>
@@ -2440,13 +2440,13 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>194791</v>
+        <v>310937</v>
       </c>
       <c r="C10">
-        <v>6500.839714990672</v>
+        <v>7631.623418382225</v>
       </c>
       <c r="D10">
-        <v>2.02877866338534</v>
+        <v>1.492033676537672</v>
       </c>
       <c r="E10">
         <v>231995</v>
@@ -2458,22 +2458,22 @@
         <v>1.713268026601082</v>
       </c>
       <c r="H10">
+        <v>248158</v>
+      </c>
+      <c r="I10">
+        <v>7340.723261368733</v>
+      </c>
+      <c r="J10">
+        <v>1.79822764190231</v>
+      </c>
+      <c r="K10">
         <v>216916</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>6721.048504511778</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>1.883560351352451</v>
-      </c>
-      <c r="K10">
-        <v>248158</v>
-      </c>
-      <c r="L10">
-        <v>7340.723261368733</v>
-      </c>
-      <c r="M10">
-        <v>1.79822764190231</v>
       </c>
       <c r="N10">
         <v>1202797</v>
@@ -2485,67 +2485,67 @@
         <v>0.01329221967238757</v>
       </c>
       <c r="Q10">
-        <v>310937</v>
+        <v>194791</v>
       </c>
       <c r="R10">
-        <v>7631.623418382225</v>
+        <v>6500.839714990672</v>
       </c>
       <c r="S10">
-        <v>1.492033676537672</v>
+        <v>2.02877866338534</v>
       </c>
       <c r="T10">
+        <v>1288441</v>
+      </c>
+      <c r="U10">
+        <v>78</v>
+      </c>
+      <c r="V10">
+        <v>0.003680138506447729</v>
+      </c>
+      <c r="W10">
+        <v>170751</v>
+      </c>
+      <c r="X10">
+        <v>8031.855016121743</v>
+      </c>
+      <c r="Y10">
+        <v>2.85947762293648</v>
+      </c>
+      <c r="Z10">
+        <v>258800</v>
+      </c>
+      <c r="AA10">
+        <v>9611.693555248212</v>
+      </c>
+      <c r="AB10">
+        <v>2.257718240193977</v>
+      </c>
+      <c r="AC10">
+        <v>290667</v>
+      </c>
+      <c r="AD10">
+        <v>8821.089048411199</v>
+      </c>
+      <c r="AE10">
+        <v>1.844847940484438</v>
+      </c>
+      <c r="AF10">
         <v>333968</v>
       </c>
-      <c r="U10">
+      <c r="AG10">
         <v>9147.241387434793</v>
       </c>
-      <c r="V10">
+      <c r="AH10">
         <v>1.665019721132082</v>
       </c>
-      <c r="W10">
-        <v>258800</v>
-      </c>
-      <c r="X10">
-        <v>9611.693555248212</v>
-      </c>
-      <c r="Y10">
-        <v>2.257718240193977</v>
-      </c>
-      <c r="Z10">
-        <v>170751</v>
-      </c>
-      <c r="AA10">
-        <v>8031.855016121743</v>
-      </c>
-      <c r="AB10">
-        <v>2.85947762293648</v>
-      </c>
-      <c r="AC10">
+      <c r="AI10">
         <v>234255</v>
       </c>
-      <c r="AD10">
+      <c r="AJ10">
         <v>8286.443024603501</v>
       </c>
-      <c r="AE10">
+      <c r="AK10">
         <v>2.150370913208977</v>
-      </c>
-      <c r="AF10">
-        <v>290667</v>
-      </c>
-      <c r="AG10">
-        <v>8821.089048411199</v>
-      </c>
-      <c r="AH10">
-        <v>1.844847940484438</v>
-      </c>
-      <c r="AI10">
-        <v>1288441</v>
-      </c>
-      <c r="AJ10">
-        <v>78</v>
-      </c>
-      <c r="AK10">
-        <v>0.003680138506447729</v>
       </c>
       <c r="AL10">
         <v>85644</v>
@@ -2643,13 +2643,13 @@
         <v>76</v>
       </c>
       <c r="B11">
-        <v>107521</v>
+        <v>182403</v>
       </c>
       <c r="C11">
-        <v>3174.403881046015</v>
+        <v>3648.919155037557</v>
       </c>
       <c r="D11">
-        <v>1.794745959456744</v>
+        <v>1.216091805613418</v>
       </c>
       <c r="E11">
         <v>174991</v>
@@ -2661,22 +2661,22 @@
         <v>1.278970997703413</v>
       </c>
       <c r="H11">
+        <v>175009</v>
+      </c>
+      <c r="I11">
+        <v>5916.268503034662</v>
+      </c>
+      <c r="J11">
+        <v>2.055046201804424</v>
+      </c>
+      <c r="K11">
         <v>183392</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>5436.047093247077</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>1.801925873882417</v>
-      </c>
-      <c r="K11">
-        <v>175009</v>
-      </c>
-      <c r="L11">
-        <v>5916.268503034662</v>
-      </c>
-      <c r="M11">
-        <v>2.055046201804424</v>
       </c>
       <c r="N11">
         <v>823316</v>
@@ -2688,67 +2688,67 @@
         <v>0.001550553790623346</v>
       </c>
       <c r="Q11">
-        <v>182403</v>
+        <v>107521</v>
       </c>
       <c r="R11">
-        <v>3648.919155037557</v>
+        <v>3174.403881046015</v>
       </c>
       <c r="S11">
-        <v>1.216091805613418</v>
+        <v>1.794745959456744</v>
       </c>
       <c r="T11">
+        <v>954624</v>
+      </c>
+      <c r="U11">
+        <v>35</v>
+      </c>
+      <c r="V11">
+        <v>0.002228793299213182</v>
+      </c>
+      <c r="W11">
+        <v>123669</v>
+      </c>
+      <c r="X11">
+        <v>4430.16602397698</v>
+      </c>
+      <c r="Y11">
+        <v>2.17767592927153</v>
+      </c>
+      <c r="Z11">
+        <v>175221</v>
+      </c>
+      <c r="AA11">
+        <v>6517.211827154309</v>
+      </c>
+      <c r="AB11">
+        <v>2.261047989662281</v>
+      </c>
+      <c r="AC11">
+        <v>259674</v>
+      </c>
+      <c r="AD11">
+        <v>7809.61919686229</v>
+      </c>
+      <c r="AE11">
+        <v>1.828249602760583</v>
+      </c>
+      <c r="AF11">
         <v>217552</v>
       </c>
-      <c r="U11">
+      <c r="AG11">
         <v>4829.448105115118</v>
       </c>
-      <c r="V11">
+      <c r="AH11">
         <v>1.349486428235868</v>
       </c>
-      <c r="W11">
-        <v>175221</v>
-      </c>
-      <c r="X11">
-        <v>6517.211827154309</v>
-      </c>
-      <c r="Y11">
-        <v>2.261047989662281</v>
-      </c>
-      <c r="Z11">
-        <v>123669</v>
-      </c>
-      <c r="AA11">
-        <v>4430.16602397698</v>
-      </c>
-      <c r="AB11">
-        <v>2.17767592927153</v>
-      </c>
-      <c r="AC11">
+      <c r="AI11">
         <v>178508</v>
       </c>
-      <c r="AD11">
+      <c r="AJ11">
         <v>4643.04759829145</v>
       </c>
-      <c r="AE11">
+      <c r="AK11">
         <v>1.581173581210582</v>
-      </c>
-      <c r="AF11">
-        <v>259674</v>
-      </c>
-      <c r="AG11">
-        <v>7809.61919686229</v>
-      </c>
-      <c r="AH11">
-        <v>1.828249602760583</v>
-      </c>
-      <c r="AI11">
-        <v>954624</v>
-      </c>
-      <c r="AJ11">
-        <v>35</v>
-      </c>
-      <c r="AK11">
-        <v>0.002228793299213182</v>
       </c>
       <c r="AL11">
         <v>131308</v>

--- a/notebooks/output/acs1_age_1021.xlsx
+++ b/notebooks/output/acs1_age_1021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>GEO_ID</t>
   </si>
@@ -37,6 +37,33 @@
     <t>p_4054_10C</t>
   </si>
   <si>
+    <t>p_o55_10E</t>
+  </si>
+  <si>
+    <t>p_o55_10M</t>
+  </si>
+  <si>
+    <t>p_o55_10C</t>
+  </si>
+  <si>
+    <t>tot_10E</t>
+  </si>
+  <si>
+    <t>tot_10M</t>
+  </si>
+  <si>
+    <t>tot_10C</t>
+  </si>
+  <si>
+    <t>p_u10_10E</t>
+  </si>
+  <si>
+    <t>p_u10_10M</t>
+  </si>
+  <si>
+    <t>p_u10_10C</t>
+  </si>
+  <si>
     <t>p_1024_10E</t>
   </si>
   <si>
@@ -46,31 +73,40 @@
     <t>p_1024_10C</t>
   </si>
   <si>
-    <t>p_o55_10E</t>
-  </si>
-  <si>
-    <t>p_o55_10M</t>
-  </si>
-  <si>
-    <t>p_o55_10C</t>
-  </si>
-  <si>
-    <t>tot_10E</t>
-  </si>
-  <si>
-    <t>tot_10M</t>
-  </si>
-  <si>
-    <t>tot_10C</t>
-  </si>
-  <si>
-    <t>p_u10_10E</t>
-  </si>
-  <si>
-    <t>p_u10_10M</t>
-  </si>
-  <si>
-    <t>p_u10_10C</t>
+    <t>p_o55_21E</t>
+  </si>
+  <si>
+    <t>p_o55_21M</t>
+  </si>
+  <si>
+    <t>p_o55_21C</t>
+  </si>
+  <si>
+    <t>p_u10_21E</t>
+  </si>
+  <si>
+    <t>p_u10_21M</t>
+  </si>
+  <si>
+    <t>p_u10_21C</t>
+  </si>
+  <si>
+    <t>p_4054_21E</t>
+  </si>
+  <si>
+    <t>p_4054_21M</t>
+  </si>
+  <si>
+    <t>p_4054_21C</t>
+  </si>
+  <si>
+    <t>p_2539_21E</t>
+  </si>
+  <si>
+    <t>p_2539_21M</t>
+  </si>
+  <si>
+    <t>p_2539_21C</t>
   </si>
   <si>
     <t>tot_21E</t>
@@ -82,15 +118,6 @@
     <t>tot_21C</t>
   </si>
   <si>
-    <t>p_u10_21E</t>
-  </si>
-  <si>
-    <t>p_u10_21M</t>
-  </si>
-  <si>
-    <t>p_u10_21C</t>
-  </si>
-  <si>
     <t>p_1024_21E</t>
   </si>
   <si>
@@ -100,33 +127,6 @@
     <t>p_1024_21C</t>
   </si>
   <si>
-    <t>p_o55_21E</t>
-  </si>
-  <si>
-    <t>p_o55_21M</t>
-  </si>
-  <si>
-    <t>p_o55_21C</t>
-  </si>
-  <si>
-    <t>p_2539_21E</t>
-  </si>
-  <si>
-    <t>p_2539_21M</t>
-  </si>
-  <si>
-    <t>p_2539_21C</t>
-  </si>
-  <si>
-    <t>p_4054_21E</t>
-  </si>
-  <si>
-    <t>p_4054_21M</t>
-  </si>
-  <si>
-    <t>p_4054_21C</t>
-  </si>
-  <si>
     <t>tot_1021E</t>
   </si>
   <si>
@@ -227,15 +227,6 @@
   </si>
   <si>
     <t>AZ</t>
-  </si>
-  <si>
-    <t>Tempe</t>
-  </si>
-  <si>
-    <t>Scottsdale</t>
-  </si>
-  <si>
-    <t>Glendale</t>
   </si>
   <si>
     <t>San Antonio</t>
@@ -602,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BO11"/>
+  <dimension ref="A1:BO8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,49 +825,49 @@
         <v>1.644904956973529</v>
       </c>
       <c r="H2">
+        <v>267029</v>
+      </c>
+      <c r="I2">
+        <v>7834.840968392403</v>
+      </c>
+      <c r="J2">
+        <v>1.783634458197949</v>
+      </c>
+      <c r="K2">
+        <v>1449481</v>
+      </c>
+      <c r="L2">
+        <v>142</v>
+      </c>
+      <c r="M2">
+        <v>0.005955385993320922</v>
+      </c>
+      <c r="N2">
+        <v>220765</v>
+      </c>
+      <c r="O2">
+        <v>6608.957028155048</v>
+      </c>
+      <c r="P2">
+        <v>1.819855075138364</v>
+      </c>
+      <c r="Q2">
         <v>330835</v>
       </c>
-      <c r="I2">
+      <c r="R2">
         <v>10089.10124837688</v>
       </c>
-      <c r="J2">
+      <c r="S2">
         <v>1.853852297445381</v>
       </c>
-      <c r="K2">
-        <v>267029</v>
-      </c>
-      <c r="L2">
-        <v>7834.840968392403</v>
-      </c>
-      <c r="M2">
-        <v>1.783634458197949</v>
-      </c>
-      <c r="N2">
-        <v>1449481</v>
-      </c>
-      <c r="O2">
-        <v>142</v>
-      </c>
-      <c r="P2">
-        <v>0.005955385993320922</v>
-      </c>
-      <c r="Q2">
-        <v>220765</v>
-      </c>
-      <c r="R2">
-        <v>6608.957028155048</v>
-      </c>
-      <c r="S2">
-        <v>1.819855075138364</v>
-      </c>
       <c r="T2">
-        <v>1624539</v>
+        <v>369710</v>
       </c>
       <c r="U2">
-        <v>144</v>
+        <v>9845.410352037135</v>
       </c>
       <c r="V2">
-        <v>0.00538848214299396</v>
+        <v>1.618850419446826</v>
       </c>
       <c r="W2">
         <v>203928</v>
@@ -888,40 +879,40 @@
         <v>2.118112821455025</v>
       </c>
       <c r="Z2">
+        <v>314851</v>
+      </c>
+      <c r="AA2">
+        <v>8034.993341627608</v>
+      </c>
+      <c r="AB2">
+        <v>1.551366974410235</v>
+      </c>
+      <c r="AC2">
+        <v>380521</v>
+      </c>
+      <c r="AD2">
+        <v>9109.471444600944</v>
+      </c>
+      <c r="AE2">
+        <v>1.455286990914999</v>
+      </c>
+      <c r="AF2">
+        <v>1624539</v>
+      </c>
+      <c r="AG2">
+        <v>144</v>
+      </c>
+      <c r="AH2">
+        <v>0.00538848214299396</v>
+      </c>
+      <c r="AI2">
         <v>355529</v>
       </c>
-      <c r="AA2">
+      <c r="AJ2">
         <v>10451.35804572784</v>
       </c>
-      <c r="AB2">
+      <c r="AK2">
         <v>1.787029791195405</v>
-      </c>
-      <c r="AC2">
-        <v>369710</v>
-      </c>
-      <c r="AD2">
-        <v>9845.410352037135</v>
-      </c>
-      <c r="AE2">
-        <v>1.618850419446826</v>
-      </c>
-      <c r="AF2">
-        <v>380521</v>
-      </c>
-      <c r="AG2">
-        <v>9109.471444600944</v>
-      </c>
-      <c r="AH2">
-        <v>1.455286990914999</v>
-      </c>
-      <c r="AI2">
-        <v>314851</v>
-      </c>
-      <c r="AJ2">
-        <v>8034.993341627608</v>
-      </c>
-      <c r="AK2">
-        <v>1.551366974410235</v>
       </c>
       <c r="AL2">
         <v>175058</v>
@@ -1037,49 +1028,49 @@
         <v>0.5620517300752793</v>
       </c>
       <c r="H3">
+        <v>866348</v>
+      </c>
+      <c r="I3">
+        <v>11920.18405898164</v>
+      </c>
+      <c r="J3">
+        <v>0.8364205259158189</v>
+      </c>
+      <c r="K3">
+        <v>3827371</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>562409</v>
+      </c>
+      <c r="O3">
+        <v>7872.068216167845</v>
+      </c>
+      <c r="P3">
+        <v>0.8508846414516034</v>
+      </c>
+      <c r="Q3">
         <v>826386</v>
       </c>
-      <c r="I3">
+      <c r="R3">
         <v>11192.65433219484</v>
       </c>
-      <c r="J3">
+      <c r="S3">
         <v>0.8233495227102813</v>
       </c>
-      <c r="K3">
-        <v>866348</v>
-      </c>
-      <c r="L3">
-        <v>11920.18405898164</v>
-      </c>
-      <c r="M3">
-        <v>0.8364205259158189</v>
-      </c>
-      <c r="N3">
-        <v>3827371</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>562409</v>
-      </c>
-      <c r="R3">
-        <v>7872.068216167845</v>
-      </c>
-      <c r="S3">
-        <v>0.8508846414516034</v>
-      </c>
       <c r="T3">
-        <v>4496588</v>
+        <v>1237511</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>14702.67360040343</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.7222396812444498</v>
       </c>
       <c r="W3">
         <v>536428</v>
@@ -1091,40 +1082,40 @@
         <v>0.836679224664188</v>
       </c>
       <c r="Z3">
+        <v>847239</v>
+      </c>
+      <c r="AA3">
+        <v>6677.8487554002</v>
+      </c>
+      <c r="AB3">
+        <v>0.4791425472716848</v>
+      </c>
+      <c r="AC3">
+        <v>960808</v>
+      </c>
+      <c r="AD3">
+        <v>6689.989985044821</v>
+      </c>
+      <c r="AE3">
+        <v>0.4232753279316164</v>
+      </c>
+      <c r="AF3">
+        <v>4496588</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>914602</v>
       </c>
-      <c r="AA3">
+      <c r="AJ3">
         <v>11173.39541052763</v>
       </c>
-      <c r="AB3">
+      <c r="AK3">
         <v>0.7426550166716352</v>
-      </c>
-      <c r="AC3">
-        <v>1237511</v>
-      </c>
-      <c r="AD3">
-        <v>14702.67360040343</v>
-      </c>
-      <c r="AE3">
-        <v>0.7222396812444498</v>
-      </c>
-      <c r="AF3">
-        <v>960808</v>
-      </c>
-      <c r="AG3">
-        <v>6689.989985044821</v>
-      </c>
-      <c r="AH3">
-        <v>0.4232753279316164</v>
-      </c>
-      <c r="AI3">
-        <v>847239</v>
-      </c>
-      <c r="AJ3">
-        <v>6677.8487554002</v>
-      </c>
-      <c r="AK3">
-        <v>0.4791425472716848</v>
       </c>
       <c r="AL3">
         <v>669217</v>
@@ -1240,49 +1231,49 @@
         <v>0.05715928009534624</v>
       </c>
       <c r="H4">
+        <v>77195489</v>
+      </c>
+      <c r="I4">
+        <v>105966.8350853228</v>
+      </c>
+      <c r="J4">
+        <v>0.08344727102803624</v>
+      </c>
+      <c r="K4">
+        <v>309349689</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>40525402</v>
+      </c>
+      <c r="O4">
+        <v>60387.03706094545</v>
+      </c>
+      <c r="P4">
+        <v>0.0905837899445176</v>
+      </c>
+      <c r="Q4">
         <v>64535354</v>
       </c>
-      <c r="I4">
+      <c r="R4">
         <v>100074.9942293278</v>
       </c>
-      <c r="J4">
+      <c r="S4">
         <v>0.09426749677919297</v>
       </c>
-      <c r="K4">
-        <v>77195489</v>
-      </c>
-      <c r="L4">
-        <v>105966.8350853228</v>
-      </c>
-      <c r="M4">
-        <v>0.08344727102803624</v>
-      </c>
-      <c r="N4">
-        <v>309349689</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>40525402</v>
-      </c>
-      <c r="R4">
-        <v>60387.03706094545</v>
-      </c>
-      <c r="S4">
-        <v>0.0905837899445176</v>
-      </c>
       <c r="T4">
-        <v>331893745</v>
+        <v>98707048</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>130816.4853907947</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.08056537090007095</v>
       </c>
       <c r="W4">
         <v>38672058</v>
@@ -1294,40 +1285,40 @@
         <v>0.1149038384425286</v>
       </c>
       <c r="Z4">
+        <v>62035880</v>
+      </c>
+      <c r="AA4">
+        <v>75944.26472091227</v>
+      </c>
+      <c r="AB4">
+        <v>0.07441939450864693</v>
+      </c>
+      <c r="AC4">
+        <v>67450536</v>
+      </c>
+      <c r="AD4">
+        <v>81909.01968037464</v>
+      </c>
+      <c r="AE4">
+        <v>0.07382108443278616</v>
+      </c>
+      <c r="AF4">
+        <v>331893745</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
         <v>65028223</v>
       </c>
-      <c r="AA4">
+      <c r="AJ4">
         <v>114963.3993234369</v>
       </c>
-      <c r="AB4">
+      <c r="AK4">
         <v>0.1074711282488213</v>
-      </c>
-      <c r="AC4">
-        <v>98707048</v>
-      </c>
-      <c r="AD4">
-        <v>130816.4853907947</v>
-      </c>
-      <c r="AE4">
-        <v>0.08056537090007095</v>
-      </c>
-      <c r="AF4">
-        <v>67450536</v>
-      </c>
-      <c r="AG4">
-        <v>81909.01968037464</v>
-      </c>
-      <c r="AH4">
-        <v>0.07382108443278616</v>
-      </c>
-      <c r="AI4">
-        <v>62035880</v>
-      </c>
-      <c r="AJ4">
-        <v>75944.26472091227</v>
-      </c>
-      <c r="AK4">
-        <v>0.07441939450864693</v>
       </c>
       <c r="AL4">
         <v>22544056</v>
@@ -1443,49 +1434,49 @@
         <v>0.4562971428649076</v>
       </c>
       <c r="H5">
+        <v>1620055</v>
+      </c>
+      <c r="I5">
+        <v>17087.89015648216</v>
+      </c>
+      <c r="J5">
+        <v>0.6411989204757725</v>
+      </c>
+      <c r="K5">
+        <v>6413737</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>904399</v>
+      </c>
+      <c r="O5">
+        <v>9523.53763052365</v>
+      </c>
+      <c r="P5">
+        <v>0.6401361100383709</v>
+      </c>
+      <c r="Q5">
         <v>1362580</v>
       </c>
-      <c r="I5">
+      <c r="R5">
         <v>14513.27485442207</v>
       </c>
-      <c r="J5">
+      <c r="S5">
         <v>0.647496623021831</v>
       </c>
-      <c r="K5">
-        <v>1620055</v>
-      </c>
-      <c r="L5">
-        <v>17087.89015648216</v>
-      </c>
-      <c r="M5">
-        <v>0.6411989204757725</v>
-      </c>
-      <c r="N5">
-        <v>6413737</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>904399</v>
-      </c>
-      <c r="R5">
-        <v>9523.53763052365</v>
-      </c>
-      <c r="S5">
-        <v>0.6401361100383709</v>
-      </c>
       <c r="T5">
-        <v>7276316</v>
+        <v>2213996</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>20056.30038167558</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.5506911424989019</v>
       </c>
       <c r="W5">
         <v>848564</v>
@@ -1497,40 +1488,40 @@
         <v>0.6725221530813776</v>
       </c>
       <c r="Z5">
+        <v>1295920</v>
+      </c>
+      <c r="AA5">
+        <v>10729.69090887524</v>
+      </c>
+      <c r="AB5">
+        <v>0.5033187585069532</v>
+      </c>
+      <c r="AC5">
+        <v>1470381</v>
+      </c>
+      <c r="AD5">
+        <v>10823.51024390886</v>
+      </c>
+      <c r="AE5">
+        <v>0.4474786797203501</v>
+      </c>
+      <c r="AF5">
+        <v>7276316</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
         <v>1447455</v>
       </c>
-      <c r="AA5">
+      <c r="AJ5">
         <v>14831.48549539121</v>
       </c>
-      <c r="AB5">
+      <c r="AK5">
         <v>0.6228933269152438</v>
-      </c>
-      <c r="AC5">
-        <v>2213996</v>
-      </c>
-      <c r="AD5">
-        <v>20056.30038167558</v>
-      </c>
-      <c r="AE5">
-        <v>0.5506911424989019</v>
-      </c>
-      <c r="AF5">
-        <v>1470381</v>
-      </c>
-      <c r="AG5">
-        <v>10823.51024390886</v>
-      </c>
-      <c r="AH5">
-        <v>0.4474786797203501</v>
-      </c>
-      <c r="AI5">
-        <v>1295920</v>
-      </c>
-      <c r="AJ5">
-        <v>10729.69090887524</v>
-      </c>
-      <c r="AK5">
-        <v>0.5033187585069532</v>
       </c>
       <c r="AL5">
         <v>862579</v>
@@ -1628,121 +1619,121 @@
         <v>71</v>
       </c>
       <c r="B6">
-        <v>40816</v>
+        <v>293401</v>
       </c>
       <c r="C6">
-        <v>3635.258312692511</v>
+        <v>4991.241729269381</v>
       </c>
       <c r="D6">
-        <v>5.41425782232802</v>
+        <v>1.034144226187236</v>
       </c>
       <c r="E6">
-        <v>21984</v>
+        <v>255360</v>
       </c>
       <c r="F6">
-        <v>2439.773760003169</v>
+        <v>4913.128433086194</v>
       </c>
       <c r="G6">
-        <v>6.746475358711196</v>
+        <v>1.169605347212587</v>
       </c>
       <c r="H6">
-        <v>49991</v>
+        <v>277706</v>
       </c>
       <c r="I6">
-        <v>5026.761084435981</v>
+        <v>6739.814760065739</v>
       </c>
       <c r="J6">
-        <v>6.112663907997034</v>
+        <v>1.475355890699948</v>
       </c>
       <c r="K6">
-        <v>29798</v>
+        <v>1334359</v>
       </c>
       <c r="L6">
-        <v>2534.89250265174</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>5.17138092059327</v>
+        <v>0.004419093013914851</v>
       </c>
       <c r="N6">
-        <v>162123</v>
+        <v>198777</v>
       </c>
       <c r="O6">
-        <v>45</v>
+        <v>5686.74019100574</v>
       </c>
       <c r="P6">
-        <v>0.01687337583211756</v>
+        <v>1.739127222236236</v>
       </c>
       <c r="Q6">
-        <v>19534</v>
+        <v>309115</v>
       </c>
       <c r="R6">
-        <v>2790.119531489646</v>
+        <v>7507.801209408784</v>
       </c>
       <c r="S6">
-        <v>8.68291847925866</v>
+        <v>1.476477328262174</v>
       </c>
       <c r="T6">
-        <v>184109</v>
+        <v>340951</v>
       </c>
       <c r="U6">
-        <v>40</v>
+        <v>9053.955157830196</v>
       </c>
       <c r="V6">
-        <v>0.01320745287981163</v>
+        <v>1.614285955490221</v>
       </c>
       <c r="W6">
-        <v>16099</v>
+        <v>197345</v>
       </c>
       <c r="X6">
-        <v>2514.801582630328</v>
+        <v>7146.612764100207</v>
       </c>
       <c r="Y6">
-        <v>9.495961000542909</v>
+        <v>2.20144693268187</v>
       </c>
       <c r="Z6">
-        <v>51828</v>
+        <v>258916</v>
       </c>
       <c r="AA6">
-        <v>4766.835323356577</v>
+        <v>7041.765474651936</v>
       </c>
       <c r="AB6">
-        <v>5.591132656177185</v>
+        <v>1.653319414493171</v>
       </c>
       <c r="AC6">
-        <v>32714</v>
+        <v>344102</v>
       </c>
       <c r="AD6">
-        <v>3058.468734514054</v>
+        <v>7596.37341104293</v>
       </c>
       <c r="AE6">
-        <v>5.68335119625509</v>
+        <v>1.342002132195045</v>
       </c>
       <c r="AF6">
-        <v>56920</v>
+        <v>1451863</v>
       </c>
       <c r="AG6">
-        <v>4435.719445591661</v>
+        <v>92</v>
       </c>
       <c r="AH6">
-        <v>4.737326045611567</v>
+        <v>0.003852088776401941</v>
       </c>
       <c r="AI6">
-        <v>26548</v>
+        <v>310549</v>
       </c>
       <c r="AJ6">
-        <v>2714.598497015719</v>
+        <v>8857.882647676024</v>
       </c>
       <c r="AK6">
-        <v>6.215955447827297</v>
+        <v>1.733939279409102</v>
       </c>
       <c r="AL6">
-        <v>21986</v>
+        <v>117504</v>
       </c>
       <c r="AM6">
-        <v>60.20797289396148</v>
+        <v>133.6899397860587</v>
       </c>
       <c r="AN6">
-        <v>0.1664722615523542</v>
+        <v>0.06916401153416529</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1751,79 +1742,79 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>-3435</v>
+        <v>-1432</v>
       </c>
       <c r="AR6">
-        <v>3756.19408444239</v>
+        <v>9133.076590065366</v>
       </c>
       <c r="AS6">
-        <v>66.47454612039287</v>
+        <v>387.7110505028513</v>
       </c>
       <c r="AT6">
-        <v>0.1204887647033425</v>
+        <v>0.1489681562458079</v>
       </c>
       <c r="AU6">
-        <v>0.08744276488384599</v>
+        <v>0.1359253593486438</v>
       </c>
       <c r="AV6">
-        <v>1837</v>
+        <v>1434</v>
       </c>
       <c r="AW6">
-        <v>6927.557000848135</v>
+        <v>11611.59610045062</v>
       </c>
       <c r="AX6">
-        <v>229.2477328023633</v>
+        <v>492.2399605096641</v>
       </c>
       <c r="AY6">
-        <v>0.3083523004138833</v>
+        <v>0.2316580470473089</v>
       </c>
       <c r="AZ6">
-        <v>0.2815071506553183</v>
+        <v>0.2138969034957155</v>
       </c>
       <c r="BA6">
-        <v>16104</v>
+        <v>50701</v>
       </c>
       <c r="BB6">
-        <v>5735.042284063823</v>
+        <v>9089.410486934783</v>
       </c>
       <c r="BC6">
-        <v>21.64895611679034</v>
+        <v>10.89816275745331</v>
       </c>
       <c r="BD6">
-        <v>0.2517594665778452</v>
+        <v>0.2198816060745272</v>
       </c>
       <c r="BE6">
-        <v>0.3091646796191387</v>
+        <v>0.2370072107354482</v>
       </c>
       <c r="BF6">
-        <v>4564</v>
+        <v>3556</v>
       </c>
       <c r="BG6">
-        <v>3649.868627772786</v>
+        <v>8586.343342774037</v>
       </c>
       <c r="BH6">
-        <v>48.61448561056378</v>
+        <v>146.7846346048809</v>
       </c>
       <c r="BI6">
-        <v>0.1356007475805407</v>
+        <v>0.1913727864839972</v>
       </c>
       <c r="BJ6">
-        <v>0.1441971875356446</v>
+        <v>0.1783336306524789</v>
       </c>
       <c r="BK6">
-        <v>2916</v>
+        <v>63245</v>
       </c>
       <c r="BL6">
-        <v>3972.393610910178</v>
+        <v>11287.12571915454</v>
       </c>
       <c r="BM6">
-        <v>82.81306388211726</v>
+        <v>10.84903881936873</v>
       </c>
       <c r="BN6">
-        <v>0.1837987207243883</v>
+        <v>0.2081194041483589</v>
       </c>
       <c r="BO6">
-        <v>0.1776882173060524</v>
+        <v>0.2348368957677136</v>
       </c>
     </row>
     <row r="7" spans="1:67">
@@ -1831,121 +1822,121 @@
         <v>72</v>
       </c>
       <c r="B7">
-        <v>32705</v>
+        <v>310937</v>
       </c>
       <c r="C7">
-        <v>3559.065748198535</v>
+        <v>7631.623418382225</v>
       </c>
       <c r="D7">
-        <v>6.615397659000181</v>
+        <v>1.492033676537672</v>
       </c>
       <c r="E7">
-        <v>53451</v>
+        <v>231995</v>
       </c>
       <c r="F7">
-        <v>3767.46094870272</v>
+        <v>6538.37518042518</v>
       </c>
       <c r="G7">
-        <v>4.28476514347825</v>
+        <v>1.713268026601082</v>
       </c>
       <c r="H7">
-        <v>36006</v>
+        <v>216916</v>
       </c>
       <c r="I7">
-        <v>3882.528557525366</v>
+        <v>6721.048504511778</v>
       </c>
       <c r="J7">
-        <v>6.555017860963338</v>
+        <v>1.883560351352451</v>
       </c>
       <c r="K7">
-        <v>77461</v>
+        <v>1202797</v>
       </c>
       <c r="L7">
-        <v>4682.154632217949</v>
+        <v>263</v>
       </c>
       <c r="M7">
-        <v>3.67448730232121</v>
+        <v>0.01329221967238757</v>
       </c>
       <c r="N7">
-        <v>217977</v>
+        <v>194791</v>
       </c>
       <c r="O7">
-        <v>28</v>
+        <v>6500.839714990672</v>
       </c>
       <c r="P7">
-        <v>0.007808748902748766</v>
+        <v>2.02877866338534</v>
       </c>
       <c r="Q7">
-        <v>18354</v>
+        <v>248158</v>
       </c>
       <c r="R7">
-        <v>2557.891905456523</v>
+        <v>7340.723261368733</v>
       </c>
       <c r="S7">
-        <v>8.471992408192818</v>
+        <v>1.79822764190231</v>
       </c>
       <c r="T7">
-        <v>242754</v>
+        <v>290667</v>
       </c>
       <c r="U7">
-        <v>38</v>
+        <v>8821.089048411199</v>
       </c>
       <c r="V7">
-        <v>0.009515931334341671</v>
+        <v>1.844847940484438</v>
       </c>
       <c r="W7">
-        <v>16043</v>
+        <v>170751</v>
       </c>
       <c r="X7">
-        <v>2220.573349385244</v>
+        <v>8031.855016121743</v>
       </c>
       <c r="Y7">
-        <v>8.414215630543234</v>
+        <v>2.85947762293648</v>
       </c>
       <c r="Z7">
-        <v>31020</v>
+        <v>234255</v>
       </c>
       <c r="AA7">
-        <v>3382.600035475669</v>
+        <v>8286.443024603501</v>
       </c>
       <c r="AB7">
-        <v>6.628922678526197</v>
+        <v>2.150370913208977</v>
       </c>
       <c r="AC7">
-        <v>104209</v>
+        <v>333968</v>
       </c>
       <c r="AD7">
-        <v>5042.441174669269</v>
+        <v>9147.241387434793</v>
       </c>
       <c r="AE7">
-        <v>2.941505804674718</v>
+        <v>1.665019721132082</v>
       </c>
       <c r="AF7">
-        <v>47583</v>
+        <v>1288441</v>
       </c>
       <c r="AG7">
-        <v>3939.214769468656</v>
+        <v>78</v>
       </c>
       <c r="AH7">
-        <v>5.032594486113634</v>
+        <v>0.003680138506447729</v>
       </c>
       <c r="AI7">
-        <v>43899</v>
+        <v>258800</v>
       </c>
       <c r="AJ7">
-        <v>3648.684009338162</v>
+        <v>9611.693555248212</v>
       </c>
       <c r="AK7">
-        <v>5.052609377159219</v>
+        <v>2.257718240193977</v>
       </c>
       <c r="AL7">
-        <v>24777</v>
+        <v>85644</v>
       </c>
       <c r="AM7">
-        <v>47.20169488482379</v>
+        <v>274.3228025520299</v>
       </c>
       <c r="AN7">
-        <v>0.1158091756211885</v>
+        <v>0.1947148452880511</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1954,79 +1945,79 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>-2311</v>
+        <v>-24040</v>
       </c>
       <c r="AR7">
-        <v>3387.293462338331</v>
+        <v>10333.03498494029</v>
       </c>
       <c r="AS7">
-        <v>89.10190228938988</v>
+        <v>26.12928549919408</v>
       </c>
       <c r="AT7">
-        <v>0.0842015441996174</v>
+        <v>0.1619483587005954</v>
       </c>
       <c r="AU7">
-        <v>0.06608747950600197</v>
+        <v>0.1325252766715744</v>
       </c>
       <c r="AV7">
-        <v>-4986</v>
+        <v>10642</v>
       </c>
       <c r="AW7">
-        <v>5149.369961461305</v>
+        <v>12094.2495013126</v>
       </c>
       <c r="AX7">
-        <v>62.78211163246519</v>
+        <v>69.08595523793491</v>
       </c>
       <c r="AY7">
-        <v>0.1651825651330186</v>
+        <v>0.2063174417628245</v>
       </c>
       <c r="AZ7">
-        <v>0.1277836822462246</v>
+        <v>0.2008629033071751</v>
       </c>
       <c r="BA7">
-        <v>14878</v>
+        <v>23031</v>
       </c>
       <c r="BB7">
-        <v>5308.894611875433</v>
+        <v>11912.75371188375</v>
       </c>
       <c r="BC7">
-        <v>21.69170289938892</v>
+        <v>31.4436870719213</v>
       </c>
       <c r="BD7">
-        <v>0.1500387655578341</v>
+        <v>0.2585116191676567</v>
       </c>
       <c r="BE7">
-        <v>0.196013247979436</v>
+        <v>0.2592031765521277</v>
       </c>
       <c r="BF7">
-        <v>-9552</v>
+        <v>2260</v>
       </c>
       <c r="BG7">
-        <v>5244.678922488964</v>
+        <v>10555.35352321276</v>
       </c>
       <c r="BH7">
-        <v>33.37787546196639</v>
+        <v>283.9216053800134</v>
       </c>
       <c r="BI7">
-        <v>0.2452139445904843</v>
+        <v>0.1928795964738854</v>
       </c>
       <c r="BJ7">
-        <v>0.1808373909389752</v>
+        <v>0.1818127488957585</v>
       </c>
       <c r="BK7">
-        <v>26748</v>
+        <v>73751</v>
       </c>
       <c r="BL7">
-        <v>6881.045342097376</v>
+        <v>11089.81988131457</v>
       </c>
       <c r="BM7">
-        <v>15.63857591965488</v>
+        <v>9.14093618085778</v>
       </c>
       <c r="BN7">
-        <v>0.3553631805190456</v>
+        <v>0.180342983895038</v>
       </c>
       <c r="BO7">
-        <v>0.4292781993293622</v>
+        <v>0.2255958945733642</v>
       </c>
     </row>
     <row r="8" spans="1:67">
@@ -2034,121 +2025,121 @@
         <v>73</v>
       </c>
       <c r="B8">
-        <v>47581</v>
+        <v>182403</v>
       </c>
       <c r="C8">
-        <v>3789.950527381591</v>
+        <v>3648.919155037557</v>
       </c>
       <c r="D8">
-        <v>4.842103556547968</v>
+        <v>1.216091805613418</v>
       </c>
       <c r="E8">
-        <v>44534</v>
+        <v>174991</v>
       </c>
       <c r="F8">
-        <v>3669.596980596098</v>
+        <v>3681.64840798249</v>
       </c>
       <c r="G8">
-        <v>5.009112235405669</v>
+        <v>1.278970997703413</v>
       </c>
       <c r="H8">
-        <v>55190</v>
+        <v>183392</v>
       </c>
       <c r="I8">
-        <v>4194.525360514584</v>
+        <v>5436.047093247077</v>
       </c>
       <c r="J8">
-        <v>4.620154812542672</v>
+        <v>1.801925873882417</v>
       </c>
       <c r="K8">
-        <v>44498</v>
+        <v>823316</v>
       </c>
       <c r="L8">
-        <v>3439.067896974411</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>4.698230892074397</v>
+        <v>0.001550553790623346</v>
       </c>
       <c r="N8">
-        <v>227358</v>
+        <v>107521</v>
       </c>
       <c r="O8">
-        <v>106</v>
+        <v>3174.403881046015</v>
       </c>
       <c r="P8">
-        <v>0.02834194968710354</v>
+        <v>1.794745959456744</v>
       </c>
       <c r="Q8">
-        <v>35555</v>
+        <v>175009</v>
       </c>
       <c r="R8">
-        <v>3174.67746393236</v>
+        <v>5916.268503034662</v>
       </c>
       <c r="S8">
-        <v>5.427914821691741</v>
+        <v>2.055046201804424</v>
       </c>
       <c r="T8">
-        <v>249627</v>
+        <v>259674</v>
       </c>
       <c r="U8">
-        <v>56</v>
+        <v>7809.61919686229</v>
       </c>
       <c r="V8">
-        <v>0.0136373682299949</v>
+        <v>1.828249602760583</v>
       </c>
       <c r="W8">
-        <v>29239</v>
+        <v>123669</v>
       </c>
       <c r="X8">
-        <v>3144.696010745713</v>
+        <v>4430.16602397698</v>
       </c>
       <c r="Y8">
-        <v>6.538080329163795</v>
+        <v>2.17767592927153</v>
       </c>
       <c r="Z8">
-        <v>56311</v>
+        <v>178508</v>
       </c>
       <c r="AA8">
-        <v>4590.492239400912</v>
+        <v>4643.04759829145</v>
       </c>
       <c r="AB8">
-        <v>4.95564417238083</v>
+        <v>1.581173581210582</v>
       </c>
       <c r="AC8">
-        <v>64056</v>
+        <v>217552</v>
       </c>
       <c r="AD8">
-        <v>4113.703076304851</v>
+        <v>4829.448105115118</v>
       </c>
       <c r="AE8">
-        <v>3.903976759986277</v>
+        <v>1.349486428235868</v>
       </c>
       <c r="AF8">
-        <v>52984</v>
+        <v>954624</v>
       </c>
       <c r="AG8">
-        <v>4199.829401297153</v>
+        <v>35</v>
       </c>
       <c r="AH8">
-        <v>4.818601430514038</v>
+        <v>0.002228793299213182</v>
       </c>
       <c r="AI8">
-        <v>47037</v>
+        <v>175221</v>
       </c>
       <c r="AJ8">
-        <v>3570.894705812536</v>
+        <v>6517.211827154309</v>
       </c>
       <c r="AK8">
-        <v>4.614998108017968</v>
+        <v>2.261047989662281</v>
       </c>
       <c r="AL8">
-        <v>22269</v>
+        <v>131308</v>
       </c>
       <c r="AM8">
-        <v>119.8832765651657</v>
+        <v>40.8166632639171</v>
       </c>
       <c r="AN8">
-        <v>0.3272592921646108</v>
+        <v>0.01889645814014443</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -2157,687 +2148,78 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>-6316</v>
+        <v>16148</v>
       </c>
       <c r="AR8">
-        <v>4468.522127057222</v>
+        <v>5450.065228967448</v>
       </c>
       <c r="AS8">
-        <v>43.00865777325519</v>
+        <v>20.51715111272194</v>
       </c>
       <c r="AT8">
-        <v>0.1563833249764688</v>
+        <v>0.1305950570619301</v>
       </c>
       <c r="AU8">
-        <v>0.1171307590925661</v>
+        <v>0.1295473401045857</v>
       </c>
       <c r="AV8">
-        <v>1121</v>
+        <v>212</v>
       </c>
       <c r="AW8">
-        <v>6218.252326819811</v>
+        <v>8802.061292674574</v>
       </c>
       <c r="AX8">
-        <v>337.2071899991492</v>
+        <v>2523.960914341508</v>
       </c>
       <c r="AY8">
-        <v>0.2427449221052261</v>
+        <v>0.2125660135355076</v>
       </c>
       <c r="AZ8">
-        <v>0.2255805662047775</v>
+        <v>0.1835497536202735</v>
       </c>
       <c r="BA8">
-        <v>5403</v>
+        <v>35149</v>
       </c>
       <c r="BB8">
-        <v>5657.056831957762</v>
+        <v>6052.948042070078</v>
       </c>
       <c r="BC8">
-        <v>63.64871966275363</v>
+        <v>10.46858708068773</v>
       </c>
       <c r="BD8">
-        <v>0.2092778789398218</v>
+        <v>0.2215467694056717</v>
       </c>
       <c r="BE8">
-        <v>0.2122526810000521</v>
+        <v>0.2278928667203003</v>
       </c>
       <c r="BF8">
-        <v>2503</v>
+        <v>3517</v>
       </c>
       <c r="BG8">
-        <v>5120.276457380011</v>
+        <v>5925.5738962568</v>
       </c>
       <c r="BH8">
-        <v>124.3559754405355</v>
+        <v>102.4217395880331</v>
       </c>
       <c r="BI8">
-        <v>0.1958761072845468</v>
+        <v>0.2125441507270598</v>
       </c>
       <c r="BJ8">
-        <v>0.1884291362713168</v>
+        <v>0.186992994100295</v>
       </c>
       <c r="BK8">
-        <v>19558</v>
+        <v>76282</v>
       </c>
       <c r="BL8">
-        <v>5361.878495452876</v>
+        <v>9515.290852096954</v>
       </c>
       <c r="BM8">
-        <v>16.66581759453179</v>
+        <v>7.582878449255083</v>
       </c>
       <c r="BN8">
-        <v>0.1957177666939364</v>
+        <v>0.2227480092698308</v>
       </c>
       <c r="BO8">
-        <v>0.2566068574312875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:67">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <v>293401</v>
-      </c>
-      <c r="C9">
-        <v>4991.241729269381</v>
-      </c>
-      <c r="D9">
-        <v>1.034144226187236</v>
-      </c>
-      <c r="E9">
-        <v>255360</v>
-      </c>
-      <c r="F9">
-        <v>4913.128433086194</v>
-      </c>
-      <c r="G9">
-        <v>1.169605347212587</v>
-      </c>
-      <c r="H9">
-        <v>309115</v>
-      </c>
-      <c r="I9">
-        <v>7507.801209408784</v>
-      </c>
-      <c r="J9">
-        <v>1.476477328262174</v>
-      </c>
-      <c r="K9">
-        <v>277706</v>
-      </c>
-      <c r="L9">
-        <v>6739.814760065739</v>
-      </c>
-      <c r="M9">
-        <v>1.475355890699948</v>
-      </c>
-      <c r="N9">
-        <v>1334359</v>
-      </c>
-      <c r="O9">
-        <v>97</v>
-      </c>
-      <c r="P9">
-        <v>0.004419093013914851</v>
-      </c>
-      <c r="Q9">
-        <v>198777</v>
-      </c>
-      <c r="R9">
-        <v>5686.74019100574</v>
-      </c>
-      <c r="S9">
-        <v>1.739127222236236</v>
-      </c>
-      <c r="T9">
-        <v>1451863</v>
-      </c>
-      <c r="U9">
-        <v>92</v>
-      </c>
-      <c r="V9">
-        <v>0.003852088776401941</v>
-      </c>
-      <c r="W9">
-        <v>197345</v>
-      </c>
-      <c r="X9">
-        <v>7146.612764100207</v>
-      </c>
-      <c r="Y9">
-        <v>2.20144693268187</v>
-      </c>
-      <c r="Z9">
-        <v>310549</v>
-      </c>
-      <c r="AA9">
-        <v>8857.882647676024</v>
-      </c>
-      <c r="AB9">
-        <v>1.733939279409102</v>
-      </c>
-      <c r="AC9">
-        <v>340951</v>
-      </c>
-      <c r="AD9">
-        <v>9053.955157830196</v>
-      </c>
-      <c r="AE9">
-        <v>1.614285955490221</v>
-      </c>
-      <c r="AF9">
-        <v>344102</v>
-      </c>
-      <c r="AG9">
-        <v>7596.37341104293</v>
-      </c>
-      <c r="AH9">
-        <v>1.342002132195045</v>
-      </c>
-      <c r="AI9">
-        <v>258916</v>
-      </c>
-      <c r="AJ9">
-        <v>7041.765474651936</v>
-      </c>
-      <c r="AK9">
-        <v>1.653319414493171</v>
-      </c>
-      <c r="AL9">
-        <v>117504</v>
-      </c>
-      <c r="AM9">
-        <v>133.6899397860587</v>
-      </c>
-      <c r="AN9">
-        <v>0.06916401153416529</v>
-      </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-      <c r="AP9">
-        <v>1</v>
-      </c>
-      <c r="AQ9">
-        <v>-1432</v>
-      </c>
-      <c r="AR9">
-        <v>9133.076590065366</v>
-      </c>
-      <c r="AS9">
-        <v>387.7110505028513</v>
-      </c>
-      <c r="AT9">
-        <v>0.1489681562458079</v>
-      </c>
-      <c r="AU9">
-        <v>0.1359253593486438</v>
-      </c>
-      <c r="AV9">
-        <v>1434</v>
-      </c>
-      <c r="AW9">
-        <v>11611.59610045062</v>
-      </c>
-      <c r="AX9">
-        <v>492.2399605096641</v>
-      </c>
-      <c r="AY9">
-        <v>0.2316580470473089</v>
-      </c>
-      <c r="AZ9">
-        <v>0.2138969034957155</v>
-      </c>
-      <c r="BA9">
-        <v>50701</v>
-      </c>
-      <c r="BB9">
-        <v>9089.410486934783</v>
-      </c>
-      <c r="BC9">
-        <v>10.89816275745331</v>
-      </c>
-      <c r="BD9">
-        <v>0.2198816060745272</v>
-      </c>
-      <c r="BE9">
-        <v>0.2370072107354482</v>
-      </c>
-      <c r="BF9">
-        <v>3556</v>
-      </c>
-      <c r="BG9">
-        <v>8586.343342774037</v>
-      </c>
-      <c r="BH9">
-        <v>146.7846346048809</v>
-      </c>
-      <c r="BI9">
-        <v>0.1913727864839972</v>
-      </c>
-      <c r="BJ9">
-        <v>0.1783336306524789</v>
-      </c>
-      <c r="BK9">
-        <v>63245</v>
-      </c>
-      <c r="BL9">
-        <v>11287.12571915454</v>
-      </c>
-      <c r="BM9">
-        <v>10.84903881936873</v>
-      </c>
-      <c r="BN9">
-        <v>0.2081194041483589</v>
-      </c>
-      <c r="BO9">
-        <v>0.2348368957677136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:67">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10">
-        <v>310937</v>
-      </c>
-      <c r="C10">
-        <v>7631.623418382225</v>
-      </c>
-      <c r="D10">
-        <v>1.492033676537672</v>
-      </c>
-      <c r="E10">
-        <v>231995</v>
-      </c>
-      <c r="F10">
-        <v>6538.37518042518</v>
-      </c>
-      <c r="G10">
-        <v>1.713268026601082</v>
-      </c>
-      <c r="H10">
-        <v>248158</v>
-      </c>
-      <c r="I10">
-        <v>7340.723261368733</v>
-      </c>
-      <c r="J10">
-        <v>1.79822764190231</v>
-      </c>
-      <c r="K10">
-        <v>216916</v>
-      </c>
-      <c r="L10">
-        <v>6721.048504511778</v>
-      </c>
-      <c r="M10">
-        <v>1.883560351352451</v>
-      </c>
-      <c r="N10">
-        <v>1202797</v>
-      </c>
-      <c r="O10">
-        <v>263</v>
-      </c>
-      <c r="P10">
-        <v>0.01329221967238757</v>
-      </c>
-      <c r="Q10">
-        <v>194791</v>
-      </c>
-      <c r="R10">
-        <v>6500.839714990672</v>
-      </c>
-      <c r="S10">
-        <v>2.02877866338534</v>
-      </c>
-      <c r="T10">
-        <v>1288441</v>
-      </c>
-      <c r="U10">
-        <v>78</v>
-      </c>
-      <c r="V10">
-        <v>0.003680138506447729</v>
-      </c>
-      <c r="W10">
-        <v>170751</v>
-      </c>
-      <c r="X10">
-        <v>8031.855016121743</v>
-      </c>
-      <c r="Y10">
-        <v>2.85947762293648</v>
-      </c>
-      <c r="Z10">
-        <v>258800</v>
-      </c>
-      <c r="AA10">
-        <v>9611.693555248212</v>
-      </c>
-      <c r="AB10">
-        <v>2.257718240193977</v>
-      </c>
-      <c r="AC10">
-        <v>290667</v>
-      </c>
-      <c r="AD10">
-        <v>8821.089048411199</v>
-      </c>
-      <c r="AE10">
-        <v>1.844847940484438</v>
-      </c>
-      <c r="AF10">
-        <v>333968</v>
-      </c>
-      <c r="AG10">
-        <v>9147.241387434793</v>
-      </c>
-      <c r="AH10">
-        <v>1.665019721132082</v>
-      </c>
-      <c r="AI10">
-        <v>234255</v>
-      </c>
-      <c r="AJ10">
-        <v>8286.443024603501</v>
-      </c>
-      <c r="AK10">
-        <v>2.150370913208977</v>
-      </c>
-      <c r="AL10">
-        <v>85644</v>
-      </c>
-      <c r="AM10">
-        <v>274.3228025520299</v>
-      </c>
-      <c r="AN10">
-        <v>0.1947148452880511</v>
-      </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AP10">
-        <v>1</v>
-      </c>
-      <c r="AQ10">
-        <v>-24040</v>
-      </c>
-      <c r="AR10">
-        <v>10333.03498494029</v>
-      </c>
-      <c r="AS10">
-        <v>26.12928549919408</v>
-      </c>
-      <c r="AT10">
-        <v>0.1619483587005954</v>
-      </c>
-      <c r="AU10">
-        <v>0.1325252766715744</v>
-      </c>
-      <c r="AV10">
-        <v>10642</v>
-      </c>
-      <c r="AW10">
-        <v>12094.2495013126</v>
-      </c>
-      <c r="AX10">
-        <v>69.08595523793491</v>
-      </c>
-      <c r="AY10">
-        <v>0.2063174417628245</v>
-      </c>
-      <c r="AZ10">
-        <v>0.2008629033071751</v>
-      </c>
-      <c r="BA10">
-        <v>23031</v>
-      </c>
-      <c r="BB10">
-        <v>11912.75371188375</v>
-      </c>
-      <c r="BC10">
-        <v>31.4436870719213</v>
-      </c>
-      <c r="BD10">
-        <v>0.2585116191676567</v>
-      </c>
-      <c r="BE10">
-        <v>0.2592031765521277</v>
-      </c>
-      <c r="BF10">
-        <v>2260</v>
-      </c>
-      <c r="BG10">
-        <v>10555.35352321276</v>
-      </c>
-      <c r="BH10">
-        <v>283.9216053800134</v>
-      </c>
-      <c r="BI10">
-        <v>0.1928795964738854</v>
-      </c>
-      <c r="BJ10">
-        <v>0.1818127488957585</v>
-      </c>
-      <c r="BK10">
-        <v>73751</v>
-      </c>
-      <c r="BL10">
-        <v>11089.81988131457</v>
-      </c>
-      <c r="BM10">
-        <v>9.14093618085778</v>
-      </c>
-      <c r="BN10">
-        <v>0.180342983895038</v>
-      </c>
-      <c r="BO10">
-        <v>0.2255958945733642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:67">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11">
-        <v>182403</v>
-      </c>
-      <c r="C11">
-        <v>3648.919155037557</v>
-      </c>
-      <c r="D11">
-        <v>1.216091805613418</v>
-      </c>
-      <c r="E11">
-        <v>174991</v>
-      </c>
-      <c r="F11">
-        <v>3681.64840798249</v>
-      </c>
-      <c r="G11">
-        <v>1.278970997703413</v>
-      </c>
-      <c r="H11">
-        <v>175009</v>
-      </c>
-      <c r="I11">
-        <v>5916.268503034662</v>
-      </c>
-      <c r="J11">
-        <v>2.055046201804424</v>
-      </c>
-      <c r="K11">
-        <v>183392</v>
-      </c>
-      <c r="L11">
-        <v>5436.047093247077</v>
-      </c>
-      <c r="M11">
-        <v>1.801925873882417</v>
-      </c>
-      <c r="N11">
-        <v>823316</v>
-      </c>
-      <c r="O11">
-        <v>21</v>
-      </c>
-      <c r="P11">
-        <v>0.001550553790623346</v>
-      </c>
-      <c r="Q11">
-        <v>107521</v>
-      </c>
-      <c r="R11">
-        <v>3174.403881046015</v>
-      </c>
-      <c r="S11">
-        <v>1.794745959456744</v>
-      </c>
-      <c r="T11">
-        <v>954624</v>
-      </c>
-      <c r="U11">
-        <v>35</v>
-      </c>
-      <c r="V11">
-        <v>0.002228793299213182</v>
-      </c>
-      <c r="W11">
-        <v>123669</v>
-      </c>
-      <c r="X11">
-        <v>4430.16602397698</v>
-      </c>
-      <c r="Y11">
-        <v>2.17767592927153</v>
-      </c>
-      <c r="Z11">
-        <v>175221</v>
-      </c>
-      <c r="AA11">
-        <v>6517.211827154309</v>
-      </c>
-      <c r="AB11">
-        <v>2.261047989662281</v>
-      </c>
-      <c r="AC11">
-        <v>259674</v>
-      </c>
-      <c r="AD11">
-        <v>7809.61919686229</v>
-      </c>
-      <c r="AE11">
-        <v>1.828249602760583</v>
-      </c>
-      <c r="AF11">
-        <v>217552</v>
-      </c>
-      <c r="AG11">
-        <v>4829.448105115118</v>
-      </c>
-      <c r="AH11">
-        <v>1.349486428235868</v>
-      </c>
-      <c r="AI11">
-        <v>178508</v>
-      </c>
-      <c r="AJ11">
-        <v>4643.04759829145</v>
-      </c>
-      <c r="AK11">
-        <v>1.581173581210582</v>
-      </c>
-      <c r="AL11">
-        <v>131308</v>
-      </c>
-      <c r="AM11">
-        <v>40.8166632639171</v>
-      </c>
-      <c r="AN11">
-        <v>0.01889645814014443</v>
-      </c>
-      <c r="AO11">
-        <v>1</v>
-      </c>
-      <c r="AP11">
-        <v>1</v>
-      </c>
-      <c r="AQ11">
-        <v>16148</v>
-      </c>
-      <c r="AR11">
-        <v>5450.065228967448</v>
-      </c>
-      <c r="AS11">
-        <v>20.51715111272194</v>
-      </c>
-      <c r="AT11">
-        <v>0.1305950570619301</v>
-      </c>
-      <c r="AU11">
-        <v>0.1295473401045857</v>
-      </c>
-      <c r="AV11">
-        <v>212</v>
-      </c>
-      <c r="AW11">
-        <v>8802.061292674574</v>
-      </c>
-      <c r="AX11">
-        <v>2523.960914341508</v>
-      </c>
-      <c r="AY11">
-        <v>0.2125660135355076</v>
-      </c>
-      <c r="AZ11">
-        <v>0.1835497536202735</v>
-      </c>
-      <c r="BA11">
-        <v>35149</v>
-      </c>
-      <c r="BB11">
-        <v>6052.948042070078</v>
-      </c>
-      <c r="BC11">
-        <v>10.46858708068773</v>
-      </c>
-      <c r="BD11">
-        <v>0.2215467694056717</v>
-      </c>
-      <c r="BE11">
-        <v>0.2278928667203003</v>
-      </c>
-      <c r="BF11">
-        <v>3517</v>
-      </c>
-      <c r="BG11">
-        <v>5925.5738962568</v>
-      </c>
-      <c r="BH11">
-        <v>102.4217395880331</v>
-      </c>
-      <c r="BI11">
-        <v>0.2125441507270598</v>
-      </c>
-      <c r="BJ11">
-        <v>0.186992994100295</v>
-      </c>
-      <c r="BK11">
-        <v>76282</v>
-      </c>
-      <c r="BL11">
-        <v>9515.290852096954</v>
-      </c>
-      <c r="BM11">
-        <v>7.582878449255083</v>
-      </c>
-      <c r="BN11">
-        <v>0.2227480092698308</v>
-      </c>
-      <c r="BO11">
         <v>0.2720170454545455</v>
       </c>
     </row>
